--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_10_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_10_a.xlsx
@@ -84,11 +84,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Really now? You’re are as timid as a newbie. How did Blacksteel even put a weapon in your hands... You know, that's a rare, precious weapon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah, it's not what you think... I actually paid quite a bit of money for it… 
+    <t xml:space="preserve">Really now? You're are as timid as a newbie. How did Blacksteel even put a weapon in your hands... You know, that's a rare, precious weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, it's not what you think... I actually paid quite a bit of money for it... 
 </t>
   </si>
   <si>
